--- a/xlsx/country_comparison/share_solidarity_supported_by_info_solidarity_weight_vote.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_by_info_solidarity_weight_vote.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,9 +26,15 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">info_solidarityTRUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
   </si>
   <si>
@@ -54,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -404,41 +413,50 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0154749496229128</v>
+        <v>0.0107402699915947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00140938341735006</v>
+        <v>-0.00289759134362644</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0295405158284755</v>
+        <v>0.0243781313268159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0165547590621099</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00318621188945277</v>
+        <v>-0.00318621188945287</v>
       </c>
       <c r="D3" t="n">
         <v>0.0362957300136726</v>
       </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00494056137424155</v>
+        <v>-0.00494056137424157</v>
       </c>
       <c r="C4" t="n">
         <v>-0.0512163291139684</v>
@@ -446,69 +464,84 @@
       <c r="D4" t="n">
         <v>0.0413352063654853</v>
       </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0481368196005593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00722864651991838</v>
+        <v>0.00722864651991834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0890449926812001</v>
+        <v>0.0890449926812002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.024627688715132</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0227710401552341</v>
+        <v>-0.022771040155234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.072026417585498</v>
+        <v>0.0720264175854981</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0129209851909681</v>
+        <v>-0.0129209851909682</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0728447336734538</v>
+        <v>-0.072844733673454</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0470027632915176</v>
+        <v>0.0470027632915175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0375599044291894</v>
+        <v>0.0375599044291895</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0220015874743623</v>
+        <v>-0.0220015874743622</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0971213963327411</v>
+        <v>0.0971213963327412</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00518592478852573</v>
+        <v>0.00518592478852574</v>
       </c>
       <c r="C9" t="n">
         <v>-0.0428998635668623</v>
@@ -516,61 +549,93 @@
       <c r="D9" t="n">
         <v>0.0532717131439138</v>
       </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>-0.0135269516922421</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0757042568403407</v>
+        <v>-0.0757042568403408</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0486503534558565</v>
+        <v>0.0486503534558566</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00956893909033815</v>
+        <v>0.00955264618361334</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0173210792321304</v>
+        <v>-0.0173418224556559</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0364589574128067</v>
+        <v>0.0364471148228826</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00920322016048779</v>
+        <v>-0.0182522013113218</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0645346698358919</v>
+        <v>-0.0630639428220745</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0461282295149163</v>
+        <v>0.0265595401994309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0176858990084737</v>
+        <v>-0.00920322016048767</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00844567446202413</v>
+        <v>-0.0645346698358917</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0438174724789715</v>
+        <v>0.0461282295149163</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01779300719663</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.00836073172973517</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0439467461229952</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/share_solidarity_supported_by_info_solidarity_weight_vote.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_by_info_solidarity_weight_vote.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0107402699915947</v>
+        <v>0.0109163640116801</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00289759134362644</v>
+        <v>-0.00273074860313183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0243781313268159</v>
+        <v>0.0245634766264919</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -439,13 +439,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0165547590621099</v>
+        <v>0.0165547590621098</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00318621188945287</v>
+        <v>-0.0031862118894529</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0362957300136726</v>
+        <v>0.0362957300136725</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -456,10 +456,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00494056137424157</v>
+        <v>-0.00494056137424163</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0512163291139684</v>
+        <v>-0.0512163291139685</v>
       </c>
       <c r="D4" t="n">
         <v>0.0413352063654853</v>
@@ -476,7 +476,7 @@
         <v>0.0481368196005593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00722864651991834</v>
+        <v>0.00722864651991839</v>
       </c>
       <c r="D5" t="n">
         <v>0.0890449926812002</v>
@@ -490,13 +490,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.024627688715132</v>
+        <v>0.0246276887151322</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.022771040155234</v>
+        <v>-0.0227710401552338</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0720264175854981</v>
+        <v>0.0720264175854982</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -510,10 +510,10 @@
         <v>-0.0129209851909682</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.072844733673454</v>
+        <v>-0.0728447336734538</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0470027632915175</v>
+        <v>0.0470027632915174</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -524,13 +524,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0375599044291895</v>
+        <v>0.0375599044291894</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0220015874743622</v>
+        <v>-0.0220015874743623</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0971213963327412</v>
+        <v>0.0971213963327411</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -541,13 +541,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00518592478852574</v>
+        <v>0.00518592478852564</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0428998635668623</v>
+        <v>-0.0428998635668624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0532717131439138</v>
+        <v>0.0532717131439137</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -561,7 +561,7 @@
         <v>-0.0135269516922421</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0757042568403408</v>
+        <v>-0.0757042568403409</v>
       </c>
       <c r="D10" t="n">
         <v>0.0486503534558566</v>
@@ -575,13 +575,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00955264618361334</v>
+        <v>0.00955264618361333</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0173418224556559</v>
+        <v>-0.0173418224556561</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0364471148228826</v>
+        <v>0.0364471148228827</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0182522013113218</v>
+        <v>-0.0170699254389623</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0630639428220745</v>
+        <v>-0.0620418576247338</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0265595401994309</v>
+        <v>0.0279020067468092</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -609,10 +609,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.00920322016048767</v>
+        <v>-0.0092032201604878</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0645346698358917</v>
+        <v>-0.0645346698358919</v>
       </c>
       <c r="D13" t="n">
         <v>0.0461282295149163</v>
@@ -626,13 +626,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01779300719663</v>
+        <v>0.0177930071966301</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.00836073172973517</v>
+        <v>-0.00836073172973514</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0439467461229952</v>
+        <v>0.0439467461229954</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
